--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>994765.5743985353</v>
+        <v>992205.3902386699</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673442</v>
+        <v>603248.4937673419</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>394.879938003013</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>381.4859536980655</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>81.21182540108268</v>
       </c>
       <c r="W4" t="n">
-        <v>51.71755718446796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>7.157261199728277</v>
       </c>
       <c r="F5" t="n">
-        <v>344.7606631401924</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>174.1603121499668</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>266.4388874644156</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>288.6783372476644</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17.42775815369465</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>163.9656095773495</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329809</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>111.5558505832817</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.6077720323801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114092</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009539</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>143.3270572432518</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146331</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352656</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793541</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,10 +1819,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8446405448201</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784705</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>-8.371029628293809e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419834324</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0.2811815126423244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189114</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
-        <v>78.91051008678079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>101.6969570046969</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833393</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272926</v>
       </c>
       <c r="U34" t="n">
-        <v>28.54004930889166</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>160.1597912951064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722622</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819359</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161923143</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6685478670731</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>223.8290352905944</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1224.085859695932</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>1224.085859695932</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>865.820161089182</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>865.820161089182</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
         <v>466.9515368437143</v>
@@ -4334,7 +4334,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4364,16 +4364,16 @@
         <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.825031735866</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>2000.825031735866</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.685699760054</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4395,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>518.2127024906389</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>518.2127024906389</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>518.2127024906389</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.042027525391</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="C5" t="n">
-        <v>1505.042027525391</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="D5" t="n">
-        <v>1505.042027525391</v>
+        <v>447.5189834864572</v>
       </c>
       <c r="E5" t="n">
-        <v>1119.253774927146</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525391</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4635,34 +4635,34 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>813.841548125043</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>644.9053651971361</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1357.943206367891</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1357.943206367891</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1357.943206367891</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.258718162004</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>813.841548125043</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>813.841548125043</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>813.841548125043</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.50778578647</v>
+        <v>1067.685314683801</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.545268846058</v>
+        <v>1067.685314683801</v>
       </c>
       <c r="D8" t="n">
-        <v>1151.279570239308</v>
+        <v>709.4196160770505</v>
       </c>
       <c r="E8" t="n">
-        <v>765.4913176410637</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>354.5054128514561</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>342.8410666161491</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.50778578647</v>
+        <v>1457.824646659613</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.50778578647</v>
+        <v>1067.685314683801</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1861.380351120611</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2193.450786296773</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2555.949435236615</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.7064461033923</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>513.7702631754854</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D10" t="n">
-        <v>363.6536237631497</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>215.7405301807565</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>68.85058268284618</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1274.19554437845</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>985.0772068822877</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>730.3927186764008</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y10" t="n">
-        <v>864.354910933632</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2007.689769729362</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="C11" t="n">
-        <v>1638.72725278895</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1280.4615541822</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>894.6733015839554</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>483.6873967943479</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469183</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386836</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420329</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3535.048359856287</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3835.937563882245</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234596</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.588132455666</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750371</v>
+        <v>3622.786021971446</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.26048438298</v>
+        <v>3369.295305604054</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039409</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769295</v>
+        <v>2685.463762990369</v>
       </c>
       <c r="X11" t="n">
-        <v>2784.428941769295</v>
+        <v>2311.998004729289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2394.289609793484</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792132</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376503</v>
+        <v>477.162132237651</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843894</v>
+        <v>900.4499396649612</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282788</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1955.072021259919</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>981.3767904364697</v>
+        <v>203.8650582458575</v>
       </c>
       <c r="C13" t="n">
-        <v>812.4406075085628</v>
+        <v>203.8650582458574</v>
       </c>
       <c r="D13" t="n">
-        <v>662.323968096227</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="E13" t="n">
-        <v>514.410874513834</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="F13" t="n">
-        <v>367.5209270159237</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888916</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551104</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551104</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>2155.909043551104</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1901.224555345217</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.807385308257</v>
+        <v>834.2956531176446</v>
       </c>
       <c r="X13" t="n">
-        <v>1383.81783441024</v>
+        <v>606.3061022196273</v>
       </c>
       <c r="Y13" t="n">
-        <v>1163.025255266709</v>
+        <v>385.5135230760972</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5267,61 +5267,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331903</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446338</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433616</v>
+        <v>494.0589900220742</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057091</v>
+        <v>494.0589900220741</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933734</v>
+        <v>494.0589900220741</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109804</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130701</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107598</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.66745682198</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1935.602163342364</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1935.602163342364</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1646.184993305403</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1418.195442407386</v>
+        <v>896.500033995844</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263856</v>
+        <v>675.7074548523138</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5534,25 +5534,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135293</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856224</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>550.6376870732868</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998337</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876689</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>411.963121559762</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>411.963121559762</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>411.963121559762</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,31 +5911,31 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
         <v>2044.506784258106</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400718</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121649</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121649</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171303</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892234</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,19 +6622,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057246</v>
+        <v>513.8536007400669</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778177</v>
+        <v>344.91741781216</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654819</v>
+        <v>194.8007783998244</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830888</v>
+        <v>194.8007783998244</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138368</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703066</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,16 +7169,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876709</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>411.963121559764</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>261.8464821474282</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>261.8464821474282</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>261.8464821474282</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230754</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230754</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855603</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199801</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993914</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>979.2799367326788</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708869</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>484.81129684298</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>484.81129684298</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>484.81129684298</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.81129684298</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011266</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130841</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>27.39221874047863</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243802666</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>298.8738406303677</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091725841</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>22.47804130497088</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034032</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.2915261372931</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863376</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>264.3408110036003</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382458801</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>285.9032928766018</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
-        <v>69.70496293143157</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393098</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459732</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>257.6444250803525</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237322</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>10.85445046951794</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>62.35543909864978</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038641</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>999699.7644185731</v>
+        <v>999699.7644185732</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>891786.6143717937</v>
+        <v>891786.6143717943</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970535.0535457849</v>
+        <v>970535.0535457853</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>975895.2472081557</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081552</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>975895.2472081553</v>
+        <v>975895.2472081555</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26320,25 +26320,25 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795042</v>
+        <v>405380.8397795044</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295033</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
@@ -26350,10 +26350,10 @@
         <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357065</v>
+        <v>325187.1190357075</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051376</v>
+        <v>166521.347105137</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456824</v>
+        <v>84929.5943445685</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848898</v>
+        <v>43782.40655848892</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8018.191469425932</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506621</v>
+        <v>8110.779805506623</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26442,7 +26442,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26473,10 +26473,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>224317.2007236475</v>
       </c>
       <c r="D6" t="n">
-        <v>224317.2007236474</v>
+        <v>224317.2007236473</v>
       </c>
       <c r="E6" t="n">
-        <v>-13918.19288777538</v>
+        <v>-14128.157131621</v>
       </c>
       <c r="F6" t="n">
-        <v>166699.6189764345</v>
+        <v>166653.7139808695</v>
       </c>
       <c r="G6" t="n">
-        <v>323523.551343285</v>
+        <v>323488.8134178495</v>
       </c>
       <c r="H6" t="n">
-        <v>334690.7875788643</v>
+        <v>334656.0496534285</v>
       </c>
       <c r="I6" t="n">
-        <v>334690.7875788644</v>
+        <v>334656.0496534287</v>
       </c>
       <c r="J6" t="n">
-        <v>167085.6097688818</v>
+        <v>167050.8718434461</v>
       </c>
       <c r="K6" t="n">
-        <v>334690.7875788642</v>
+        <v>334656.0496534286</v>
       </c>
       <c r="L6" t="n">
-        <v>334690.7875788643</v>
+        <v>334656.0496534285</v>
       </c>
       <c r="M6" t="n">
-        <v>249761.193234296</v>
+        <v>249726.4553088601</v>
       </c>
       <c r="N6" t="n">
-        <v>290908.3810203754</v>
+        <v>290873.6430949398</v>
       </c>
       <c r="O6" t="n">
-        <v>331667.4896016396</v>
+        <v>331632.7516762039</v>
       </c>
       <c r="P6" t="n">
-        <v>334690.7875788644</v>
+        <v>334656.0496534286</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086479</v>
+        <v>981.388327808649</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770168</v>
+        <v>278.1053753770177</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218295</v>
+        <v>145.8707812218288</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086099</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086102</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086099</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.99610773869847</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.751984957988043</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>170.9258179227453</v>
       </c>
       <c r="W4" t="n">
-        <v>234.805441152123</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>374.7731088725335</v>
       </c>
       <c r="F5" t="n">
-        <v>62.115382601519</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.50214821177067</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>115.4914826078462</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>12.34021531474093</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>148.8788418911095</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,13 +28059,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>56.78308641986246</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-7.327120978022957e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4.713266813875332e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.291295378832363e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.999691316962954e-12</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485653</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508996</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307183</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726061</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216978</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857432</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898395</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294414</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615143</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895591</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356984</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475346</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188522</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969425</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191524</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596485</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735501</v>
+        <v>566.117821625642</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>660.6327957845335</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147145</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>179.5642660017204</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205475</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533298</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697591</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190412</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691797</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263712</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973097</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050062</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761898</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570618</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929615</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>192.8077453477188</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>380.8714430074314</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.454437538928742</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.547809004032</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276256</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584705</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932485</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077546</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062448</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151096</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156627</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>2.98482469367594</v>
+        <v>427.5634418457678</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625153</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313812</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>36.96802155727595</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062172</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211633</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936581</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701852</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360915</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.570886811234</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882118</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765383</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190459</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410833</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>50.67371142570049</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811963</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
